--- a/CCmatrices met plaatjes.xlsx
+++ b/CCmatrices met plaatjes.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16485" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="CCmatPElin" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="CCmatGElin" localSheetId="0">CCmatPElin!$A$37:$F$68</definedName>
+    <definedName name="CCmatGEnonlin" localSheetId="0">CCmatPElin!$A$142:$F$173</definedName>
     <definedName name="CCmatPEnonlin" localSheetId="0">CCmatPElin!$A$72:$F$103</definedName>
+    <definedName name="CCmatPEnonlin_1" localSheetId="0">CCmatPElin!$A$107:$F$138</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -36,7 +38,31 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" name="CCmatPEnonlin" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="2" name="CCmatGEnonlin" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="Y:\ontwapps\Timer\Users\Stijn\Model\modelTt\CCmatGEnonlin.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="CCmatPEnonlin" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="Y:\ontwapps\Timer\Users\Stijn\Model\modelTt\CCmatPEnonlin.txt" comma="1">
+      <textFields count="6">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="CCmatPEnonlin1" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="Y:\ontwapps\Timer\Users\Stijn\Model\modelTt\CCmatPEnonlin.txt" comma="1">
       <textFields count="6">
         <textField/>
@@ -52,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>T2010</t>
   </si>
@@ -79,6 +105,18 @@
   </si>
   <si>
     <t>CC values GE non-linear fit</t>
+  </si>
+  <si>
+    <t>!= 1/2 &lt; p &lt; 1</t>
+  </si>
+  <si>
+    <t>!= -1 &lt; p &lt; -1/2</t>
+  </si>
+  <si>
+    <t>CC values PE non-linear fit</t>
+  </si>
+  <si>
+    <t>!= 3/4 &lt; p &lt; 1</t>
   </si>
 </sst>
 </file>
@@ -4955,6 +4993,2902 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CC values, PE, non-linear</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$B$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$108:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$B$108:$B$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-0.44941296642596501</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41266877938732999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.378511618482408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.34777749589960699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.32055467306198498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.29659536212571702</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27553268886418503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.25698401886876199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.24059489968207701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.22605407836576299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.21309533416839399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.20149386621614601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.19106088637631999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.18163804809064199</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.17309237142970299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.165311872769797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.158201907811958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.15168215727271001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.14568416089196601</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.14014930613587201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.135027188217655</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.13027427093541</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.12585279034101199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.121729854271724</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.117876700012485</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.11426807989653601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.11088175071487499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.10769804763978</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.104699527206862</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.101870666944158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.9197611650747197E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-73D3-475F-808E-DA92B8A07A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$C$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$108:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$C$108:$C$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-0.32489253324136502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41466788678990901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.48581664150043602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.54230243684847002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.58748882078057396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.62401313795565205</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.65387435130342297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.67856936389826095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.699218265433314</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.716663583391</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.73154437091089697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.744350136241965</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.75545976017449101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.76516957988993495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.77371375057096903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.78127911615747603</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.78801616433506305</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.79404717222461896</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.79947232102673105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.80437432961686195</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.80882199840128699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.81287294403625598</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.81657572792927902</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.81997152654173799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.82309545240807802</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.82597760670404397</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.828643923859406</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.831116853860002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.83341591695020401</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.83555815733250804</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.83755851639172996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-73D3-475F-808E-DA92B8A07A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$D$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO22010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$108:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$D$108:$D$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.50276738565198498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46090054686890802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.421921695407177</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38680766120061499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35567396167991699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.328247725026313</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30411699164185801</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.28284967699775998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26404439954036701</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24734807426226599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23245831321958499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.219119514833235</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.20711683929456501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.196269952159393</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.18642730367191401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17746119112877801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16926362067341999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.161742892274195</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.154820803240452</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.14843036553733399</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14251394321788299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13702173054931399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.13191050539109</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.127142604745201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.122685079792028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.11850899622508899</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.114588852542636</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.110902094418302</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.107428707616098</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10415087536117799</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.101052688812482</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-73D3-475F-808E-DA92B8A07A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$E$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumuCO2result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$108:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$E$108:$E$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.75927923121808405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75565542405195196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.75692396527470995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76080092110568398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.76586282717079102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77129488254619805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.77666071512197099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78174423920121705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.78645249583750698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.79075903097034705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.79467181110051499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.79821537302464896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80142106518076095</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80432184147477104</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.80694959819256196</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.80933391946639399</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.81150159186890403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.81347652823079097</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81527989880377205</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.816930357450524</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.81844430139220004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81983613190169702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.82111849963724304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.82230252742855803</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82339800832250998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82441357932928705</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.82535687260173096</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.82623464631907295</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.82705289767304402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.82781696026611096</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.82853158804078897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-73D3-475F-808E-DA92B8A07A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$F$107</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p.sample</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$108:$A$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$F$108:$F$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.65841976709393901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66151423156294098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65850655837081995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65220310535003501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.64430999235794295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63581992231061302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62729028064446402</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61902092763543903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.61116204491894899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.60377802315916096</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.59688492961959705</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.590472386999912</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58451630751560502</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.57898626150235799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.57384969046207002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56907426022891305</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.56462911783171899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56048550463259295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55661699533948195</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.55299952401421304</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54961129341332104</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.54643262505595303</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.54344578388597198</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.54063479714020102</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.53798527839673604</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.53548426256289605</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.53312005444362098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.53088209169799505</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.528760821946889</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52674759323143105</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52483455675025203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-73D3-475F-808E-DA92B8A07A14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="718310256"/>
+        <c:axId val="718305336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="718310256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718305336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="718305336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718310256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="595959"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>CC values, GE, non-linear</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$B$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T2010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$143:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$B$143:$B$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.46878270694777902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43159613292795901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.39557088071428198</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.36244429849858101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33273813829663401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.306407510504634</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.28317027842013798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26266883912352701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.24454490042346799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22847059616894999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.214158539821412</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2013622575873</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.189872639843948</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17951310325286601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.17013468691341799</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16161158719430899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.153837293733917</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.146721333874238</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.140186568949899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.134166965539293</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.12860576421699299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.123453975870701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.118669145699799</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.114214335072407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.110057280454779</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.106169696326451</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.10252669536702801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.91063043869439E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5889058655461004E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2857660631846806E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.9996691787651906E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-79CB-4592-AE89-7CBAB2696948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$C$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TCRE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$143:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$C$143:$C$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.32855087715972098</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42952392552916702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.50917489617036504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57198323627264003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62179968376828798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66167579568375101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.69393864823914697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72033457582238403</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.74216912923737099</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.76042128156120103</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.77583010681092801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78895846799437097</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.80023919526823495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81000846358463396</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.81852997925912296</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82601260734508697</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.83262331588397698</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83849676229330505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84374245660318303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.84845016261977602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.852694007056223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.856535633121984</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.86002664130635098</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.86321049388029703</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.86612401255344396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.86879856498179198</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.87126101145385004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87353446534394297</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87563890790591203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.87759168835610601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.87940793302345399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-79CB-4592-AE89-7CBAB2696948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$D$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO22010</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$143:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$D$143:$D$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-0.550435433748238</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.50900848186980197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.46790501535715701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.429597209065257</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39494408755999399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.364038485514738</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.33663688492128202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.31237308671216901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.29085958664806499</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.27173206993288501</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.25466597228061999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.239379879080271</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.22563314312089</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.213221321602863</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.20197112731800801</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.19173564102825699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.18239006964717899</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.173828116581489</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.165958933959795</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.15870458938196799</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.15199797094688999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.14578105799249899</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.14000349350322899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.13462140383656299</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.12959642065303101</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.124894868067484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.12048708491888301</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.116346857741579</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.112450944657229</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.10877867415740899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.105311605769164</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79CB-4592-AE89-7CBAB2696948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$E$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cumuCO2result</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$143:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$E$143:$E$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-0.79496510610764803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.79247153251736402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.793219465999915</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.79604461515549996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.79996902434846495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80434224783061603</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80877725179756799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.81306241441678495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.81709334455166005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.82082789348307506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.824258507695803</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.82739587565384198</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.83025949760536399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.83287237209711196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.83525808888640696</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.83743931159708096</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.83943705321420503</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.84127039627776901</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.84295645571610101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.84451046774165595</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.84594593819863295</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.84727481293578499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.84850764978603099</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.84965378159572202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.85072146540554305</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.85171801607295206</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.85264992436416898</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.85352296043620501</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.85434226403457503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.85511242286253897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.85583754055820904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79CB-4592-AE89-7CBAB2696948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CCmatPElin!$F$142</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p.sample</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>CCmatPElin!$A$143:$A$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CCmatPElin!$F$143:$F$173</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.53724272966284803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.547809556379666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54990457132097403</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54719741972743297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54189672200347505</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.53531550511674897</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52822197107631896</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.52105680086511297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.51406534341810795</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.50737708687835004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50105321330309904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.49511504523848499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.48956108512278601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48437723077891398</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.47954289039857501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.47503462078137798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.47082826281246498</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46690016257998401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.46322783615337498</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.45979029727418902</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45656818291461199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.45354376003220398</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.45070086499529699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.448024807374798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.44550225745779098</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.44312112911620599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.44087046482897801</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.43874032663685397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.43672169493630802</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.43480637587245402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43298691740422701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-79CB-4592-AE89-7CBAB2696948}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="938776168"/>
+        <c:axId val="938776496"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="938776168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938776496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="938776496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="938776168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5075,6 +8009,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6584,6 +9598,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6594,10 +10614,10 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6651,13 +10671,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>166687</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:rowOff>90486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6676,14 +10696,82 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CCmatPEnonlin" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CCmatGEnonlin" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CCmatPEnonlin_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CCmatPEnonlin" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="CCmatGElin" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -6950,18 +11038,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="P91" sqref="P91"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8251,7 +12339,10 @@
     </row>
     <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -8889,6 +12980,1298 @@
       </c>
       <c r="F103">
         <v>0.78966199388693303</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D106" s="1"/>
+      <c r="F106" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>1</v>
+      </c>
+      <c r="B108">
+        <v>-0.44941296642596501</v>
+      </c>
+      <c r="C108">
+        <v>-0.32489253324136502</v>
+      </c>
+      <c r="D108">
+        <v>0.50276738565198498</v>
+      </c>
+      <c r="E108">
+        <v>0.75927923121808405</v>
+      </c>
+      <c r="F108">
+        <v>0.65841976709393901</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B109">
+        <v>-0.41266877938732999</v>
+      </c>
+      <c r="C109">
+        <v>-0.41466788678990901</v>
+      </c>
+      <c r="D109">
+        <v>0.46090054686890802</v>
+      </c>
+      <c r="E109">
+        <v>0.75565542405195196</v>
+      </c>
+      <c r="F109">
+        <v>0.66151423156294098</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>1.2</v>
+      </c>
+      <c r="B110">
+        <v>-0.378511618482408</v>
+      </c>
+      <c r="C110">
+        <v>-0.48581664150043602</v>
+      </c>
+      <c r="D110">
+        <v>0.421921695407177</v>
+      </c>
+      <c r="E110">
+        <v>0.75692396527470995</v>
+      </c>
+      <c r="F110">
+        <v>0.65850655837081995</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>1.3</v>
+      </c>
+      <c r="B111">
+        <v>-0.34777749589960699</v>
+      </c>
+      <c r="C111">
+        <v>-0.54230243684847002</v>
+      </c>
+      <c r="D111">
+        <v>0.38680766120061499</v>
+      </c>
+      <c r="E111">
+        <v>0.76080092110568398</v>
+      </c>
+      <c r="F111">
+        <v>0.65220310535003501</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1.4</v>
+      </c>
+      <c r="B112">
+        <v>-0.32055467306198498</v>
+      </c>
+      <c r="C112">
+        <v>-0.58748882078057396</v>
+      </c>
+      <c r="D112">
+        <v>0.35567396167991699</v>
+      </c>
+      <c r="E112">
+        <v>0.76586282717079102</v>
+      </c>
+      <c r="F112">
+        <v>0.64430999235794295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>1.5</v>
+      </c>
+      <c r="B113">
+        <v>-0.29659536212571702</v>
+      </c>
+      <c r="C113">
+        <v>-0.62401313795565205</v>
+      </c>
+      <c r="D113">
+        <v>0.328247725026313</v>
+      </c>
+      <c r="E113">
+        <v>0.77129488254619805</v>
+      </c>
+      <c r="F113">
+        <v>0.63581992231061302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>1.6</v>
+      </c>
+      <c r="B114">
+        <v>-0.27553268886418503</v>
+      </c>
+      <c r="C114">
+        <v>-0.65387435130342297</v>
+      </c>
+      <c r="D114">
+        <v>0.30411699164185801</v>
+      </c>
+      <c r="E114">
+        <v>0.77666071512197099</v>
+      </c>
+      <c r="F114">
+        <v>0.62729028064446402</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>1.7</v>
+      </c>
+      <c r="B115">
+        <v>-0.25698401886876199</v>
+      </c>
+      <c r="C115">
+        <v>-0.67856936389826095</v>
+      </c>
+      <c r="D115">
+        <v>0.28284967699775998</v>
+      </c>
+      <c r="E115">
+        <v>0.78174423920121705</v>
+      </c>
+      <c r="F115">
+        <v>0.61902092763543903</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>1.8</v>
+      </c>
+      <c r="B116">
+        <v>-0.24059489968207701</v>
+      </c>
+      <c r="C116">
+        <v>-0.699218265433314</v>
+      </c>
+      <c r="D116">
+        <v>0.26404439954036701</v>
+      </c>
+      <c r="E116">
+        <v>0.78645249583750698</v>
+      </c>
+      <c r="F116">
+        <v>0.61116204491894899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>1.9</v>
+      </c>
+      <c r="B117">
+        <v>-0.22605407836576299</v>
+      </c>
+      <c r="C117">
+        <v>-0.716663583391</v>
+      </c>
+      <c r="D117">
+        <v>0.24734807426226599</v>
+      </c>
+      <c r="E117">
+        <v>0.79075903097034705</v>
+      </c>
+      <c r="F117">
+        <v>0.60377802315916096</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>-0.21309533416839399</v>
+      </c>
+      <c r="C118">
+        <v>-0.73154437091089697</v>
+      </c>
+      <c r="D118">
+        <v>0.23245831321958499</v>
+      </c>
+      <c r="E118">
+        <v>0.79467181110051499</v>
+      </c>
+      <c r="F118">
+        <v>0.59688492961959705</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2.1</v>
+      </c>
+      <c r="B119">
+        <v>-0.20149386621614601</v>
+      </c>
+      <c r="C119">
+        <v>-0.744350136241965</v>
+      </c>
+      <c r="D119">
+        <v>0.219119514833235</v>
+      </c>
+      <c r="E119">
+        <v>0.79821537302464896</v>
+      </c>
+      <c r="F119">
+        <v>0.590472386999912</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B120">
+        <v>-0.19106088637631999</v>
+      </c>
+      <c r="C120">
+        <v>-0.75545976017449101</v>
+      </c>
+      <c r="D120">
+        <v>0.20711683929456501</v>
+      </c>
+      <c r="E120">
+        <v>0.80142106518076095</v>
+      </c>
+      <c r="F120">
+        <v>0.58451630751560502</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B121">
+        <v>-0.18163804809064199</v>
+      </c>
+      <c r="C121">
+        <v>-0.76516957988993495</v>
+      </c>
+      <c r="D121">
+        <v>0.196269952159393</v>
+      </c>
+      <c r="E121">
+        <v>0.80432184147477104</v>
+      </c>
+      <c r="F121">
+        <v>0.57898626150235799</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2.4</v>
+      </c>
+      <c r="B122">
+        <v>-0.17309237142970299</v>
+      </c>
+      <c r="C122">
+        <v>-0.77371375057096903</v>
+      </c>
+      <c r="D122">
+        <v>0.18642730367191401</v>
+      </c>
+      <c r="E122">
+        <v>0.80694959819256196</v>
+      </c>
+      <c r="F122">
+        <v>0.57384969046207002</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2.5</v>
+      </c>
+      <c r="B123">
+        <v>-0.165311872769797</v>
+      </c>
+      <c r="C123">
+        <v>-0.78127911615747603</v>
+      </c>
+      <c r="D123">
+        <v>0.17746119112877801</v>
+      </c>
+      <c r="E123">
+        <v>0.80933391946639399</v>
+      </c>
+      <c r="F123">
+        <v>0.56907426022891305</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2.6</v>
+      </c>
+      <c r="B124">
+        <v>-0.158201907811958</v>
+      </c>
+      <c r="C124">
+        <v>-0.78801616433506305</v>
+      </c>
+      <c r="D124">
+        <v>0.16926362067341999</v>
+      </c>
+      <c r="E124">
+        <v>0.81150159186890403</v>
+      </c>
+      <c r="F124">
+        <v>0.56462911783171899</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2.7</v>
+      </c>
+      <c r="B125">
+        <v>-0.15168215727271001</v>
+      </c>
+      <c r="C125">
+        <v>-0.79404717222461896</v>
+      </c>
+      <c r="D125">
+        <v>0.161742892274195</v>
+      </c>
+      <c r="E125">
+        <v>0.81347652823079097</v>
+      </c>
+      <c r="F125">
+        <v>0.56048550463259295</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2.8</v>
+      </c>
+      <c r="B126">
+        <v>-0.14568416089196601</v>
+      </c>
+      <c r="C126">
+        <v>-0.79947232102673105</v>
+      </c>
+      <c r="D126">
+        <v>0.154820803240452</v>
+      </c>
+      <c r="E126">
+        <v>0.81527989880377205</v>
+      </c>
+      <c r="F126">
+        <v>0.55661699533948195</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2.9</v>
+      </c>
+      <c r="B127">
+        <v>-0.14014930613587201</v>
+      </c>
+      <c r="C127">
+        <v>-0.80437432961686195</v>
+      </c>
+      <c r="D127">
+        <v>0.14843036553733399</v>
+      </c>
+      <c r="E127">
+        <v>0.816930357450524</v>
+      </c>
+      <c r="F127">
+        <v>0.55299952401421304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3</v>
+      </c>
+      <c r="B128">
+        <v>-0.135027188217655</v>
+      </c>
+      <c r="C128">
+        <v>-0.80882199840128699</v>
+      </c>
+      <c r="D128">
+        <v>0.14251394321788299</v>
+      </c>
+      <c r="E128">
+        <v>0.81844430139220004</v>
+      </c>
+      <c r="F128">
+        <v>0.54961129341332104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>3.1</v>
+      </c>
+      <c r="B129">
+        <v>-0.13027427093541</v>
+      </c>
+      <c r="C129">
+        <v>-0.81287294403625598</v>
+      </c>
+      <c r="D129">
+        <v>0.13702173054931399</v>
+      </c>
+      <c r="E129">
+        <v>0.81983613190169702</v>
+      </c>
+      <c r="F129">
+        <v>0.54643262505595303</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>3.2</v>
+      </c>
+      <c r="B130">
+        <v>-0.12585279034101199</v>
+      </c>
+      <c r="C130">
+        <v>-0.81657572792927902</v>
+      </c>
+      <c r="D130">
+        <v>0.13191050539109</v>
+      </c>
+      <c r="E130">
+        <v>0.82111849963724304</v>
+      </c>
+      <c r="F130">
+        <v>0.54344578388597198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>3.3</v>
+      </c>
+      <c r="B131">
+        <v>-0.121729854271724</v>
+      </c>
+      <c r="C131">
+        <v>-0.81997152654173799</v>
+      </c>
+      <c r="D131">
+        <v>0.127142604745201</v>
+      </c>
+      <c r="E131">
+        <v>0.82230252742855803</v>
+      </c>
+      <c r="F131">
+        <v>0.54063479714020102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>3.4</v>
+      </c>
+      <c r="B132">
+        <v>-0.117876700012485</v>
+      </c>
+      <c r="C132">
+        <v>-0.82309545240807802</v>
+      </c>
+      <c r="D132">
+        <v>0.122685079792028</v>
+      </c>
+      <c r="E132">
+        <v>0.82339800832250998</v>
+      </c>
+      <c r="F132">
+        <v>0.53798527839673604</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>3.5</v>
+      </c>
+      <c r="B133">
+        <v>-0.11426807989653601</v>
+      </c>
+      <c r="C133">
+        <v>-0.82597760670404397</v>
+      </c>
+      <c r="D133">
+        <v>0.11850899622508899</v>
+      </c>
+      <c r="E133">
+        <v>0.82441357932928705</v>
+      </c>
+      <c r="F133">
+        <v>0.53548426256289605</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>3.6</v>
+      </c>
+      <c r="B134">
+        <v>-0.11088175071487499</v>
+      </c>
+      <c r="C134">
+        <v>-0.828643923859406</v>
+      </c>
+      <c r="D134">
+        <v>0.114588852542636</v>
+      </c>
+      <c r="E134">
+        <v>0.82535687260173096</v>
+      </c>
+      <c r="F134">
+        <v>0.53312005444362098</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>3.7</v>
+      </c>
+      <c r="B135">
+        <v>-0.10769804763978</v>
+      </c>
+      <c r="C135">
+        <v>-0.831116853860002</v>
+      </c>
+      <c r="D135">
+        <v>0.110902094418302</v>
+      </c>
+      <c r="E135">
+        <v>0.82623464631907295</v>
+      </c>
+      <c r="F135">
+        <v>0.53088209169799505</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>3.8</v>
+      </c>
+      <c r="B136">
+        <v>-0.104699527206862</v>
+      </c>
+      <c r="C136">
+        <v>-0.83341591695020401</v>
+      </c>
+      <c r="D136">
+        <v>0.107428707616098</v>
+      </c>
+      <c r="E136">
+        <v>0.82705289767304402</v>
+      </c>
+      <c r="F136">
+        <v>0.528760821946889</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>3.9</v>
+      </c>
+      <c r="B137">
+        <v>-0.101870666944158</v>
+      </c>
+      <c r="C137">
+        <v>-0.83555815733250804</v>
+      </c>
+      <c r="D137">
+        <v>0.10415087536117799</v>
+      </c>
+      <c r="E137">
+        <v>0.82781696026611096</v>
+      </c>
+      <c r="F137">
+        <v>0.52674759323143105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>4</v>
+      </c>
+      <c r="B138">
+        <v>-9.9197611650747197E-2</v>
+      </c>
+      <c r="C138">
+        <v>-0.83755851639172996</v>
+      </c>
+      <c r="D138">
+        <v>0.101052688812482</v>
+      </c>
+      <c r="E138">
+        <v>0.82853158804078897</v>
+      </c>
+      <c r="F138">
+        <v>0.52483455675025203</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1"/>
+      <c r="F141" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>3</v>
+      </c>
+      <c r="F142" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143">
+        <v>0.46878270694777902</v>
+      </c>
+      <c r="C143">
+        <v>0.32855087715972098</v>
+      </c>
+      <c r="D143">
+        <v>-0.550435433748238</v>
+      </c>
+      <c r="E143">
+        <v>-0.79496510610764803</v>
+      </c>
+      <c r="F143">
+        <v>0.53724272966284803</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B144">
+        <v>0.43159613292795901</v>
+      </c>
+      <c r="C144">
+        <v>0.42952392552916702</v>
+      </c>
+      <c r="D144">
+        <v>-0.50900848186980197</v>
+      </c>
+      <c r="E144">
+        <v>-0.79247153251736402</v>
+      </c>
+      <c r="F144">
+        <v>0.547809556379666</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1.2</v>
+      </c>
+      <c r="B145">
+        <v>0.39557088071428198</v>
+      </c>
+      <c r="C145">
+        <v>0.50917489617036504</v>
+      </c>
+      <c r="D145">
+        <v>-0.46790501535715701</v>
+      </c>
+      <c r="E145">
+        <v>-0.793219465999915</v>
+      </c>
+      <c r="F145">
+        <v>0.54990457132097403</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>1.3</v>
+      </c>
+      <c r="B146">
+        <v>0.36244429849858101</v>
+      </c>
+      <c r="C146">
+        <v>0.57198323627264003</v>
+      </c>
+      <c r="D146">
+        <v>-0.429597209065257</v>
+      </c>
+      <c r="E146">
+        <v>-0.79604461515549996</v>
+      </c>
+      <c r="F146">
+        <v>0.54719741972743297</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1.4</v>
+      </c>
+      <c r="B147">
+        <v>0.33273813829663401</v>
+      </c>
+      <c r="C147">
+        <v>0.62179968376828798</v>
+      </c>
+      <c r="D147">
+        <v>-0.39494408755999399</v>
+      </c>
+      <c r="E147">
+        <v>-0.79996902434846495</v>
+      </c>
+      <c r="F147">
+        <v>0.54189672200347505</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>1.5</v>
+      </c>
+      <c r="B148">
+        <v>0.306407510504634</v>
+      </c>
+      <c r="C148">
+        <v>0.66167579568375101</v>
+      </c>
+      <c r="D148">
+        <v>-0.364038485514738</v>
+      </c>
+      <c r="E148">
+        <v>-0.80434224783061603</v>
+      </c>
+      <c r="F148">
+        <v>0.53531550511674897</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>1.6</v>
+      </c>
+      <c r="B149">
+        <v>0.28317027842013798</v>
+      </c>
+      <c r="C149">
+        <v>0.69393864823914697</v>
+      </c>
+      <c r="D149">
+        <v>-0.33663688492128202</v>
+      </c>
+      <c r="E149">
+        <v>-0.80877725179756799</v>
+      </c>
+      <c r="F149">
+        <v>0.52822197107631896</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>1.7</v>
+      </c>
+      <c r="B150">
+        <v>0.26266883912352701</v>
+      </c>
+      <c r="C150">
+        <v>0.72033457582238403</v>
+      </c>
+      <c r="D150">
+        <v>-0.31237308671216901</v>
+      </c>
+      <c r="E150">
+        <v>-0.81306241441678495</v>
+      </c>
+      <c r="F150">
+        <v>0.52105680086511297</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>1.8</v>
+      </c>
+      <c r="B151">
+        <v>0.24454490042346799</v>
+      </c>
+      <c r="C151">
+        <v>0.74216912923737099</v>
+      </c>
+      <c r="D151">
+        <v>-0.29085958664806499</v>
+      </c>
+      <c r="E151">
+        <v>-0.81709334455166005</v>
+      </c>
+      <c r="F151">
+        <v>0.51406534341810795</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>1.9</v>
+      </c>
+      <c r="B152">
+        <v>0.22847059616894999</v>
+      </c>
+      <c r="C152">
+        <v>0.76042128156120103</v>
+      </c>
+      <c r="D152">
+        <v>-0.27173206993288501</v>
+      </c>
+      <c r="E152">
+        <v>-0.82082789348307506</v>
+      </c>
+      <c r="F152">
+        <v>0.50737708687835004</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2</v>
+      </c>
+      <c r="B153">
+        <v>0.214158539821412</v>
+      </c>
+      <c r="C153">
+        <v>0.77583010681092801</v>
+      </c>
+      <c r="D153">
+        <v>-0.25466597228061999</v>
+      </c>
+      <c r="E153">
+        <v>-0.824258507695803</v>
+      </c>
+      <c r="F153">
+        <v>0.50105321330309904</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2.1</v>
+      </c>
+      <c r="B154">
+        <v>0.2013622575873</v>
+      </c>
+      <c r="C154">
+        <v>0.78895846799437097</v>
+      </c>
+      <c r="D154">
+        <v>-0.239379879080271</v>
+      </c>
+      <c r="E154">
+        <v>-0.82739587565384198</v>
+      </c>
+      <c r="F154">
+        <v>0.49511504523848499</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B155">
+        <v>0.189872639843948</v>
+      </c>
+      <c r="C155">
+        <v>0.80023919526823495</v>
+      </c>
+      <c r="D155">
+        <v>-0.22563314312089</v>
+      </c>
+      <c r="E155">
+        <v>-0.83025949760536399</v>
+      </c>
+      <c r="F155">
+        <v>0.48956108512278601</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B156">
+        <v>0.17951310325286601</v>
+      </c>
+      <c r="C156">
+        <v>0.81000846358463396</v>
+      </c>
+      <c r="D156">
+        <v>-0.213221321602863</v>
+      </c>
+      <c r="E156">
+        <v>-0.83287237209711196</v>
+      </c>
+      <c r="F156">
+        <v>0.48437723077891398</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2.4</v>
+      </c>
+      <c r="B157">
+        <v>0.17013468691341799</v>
+      </c>
+      <c r="C157">
+        <v>0.81852997925912296</v>
+      </c>
+      <c r="D157">
+        <v>-0.20197112731800801</v>
+      </c>
+      <c r="E157">
+        <v>-0.83525808888640696</v>
+      </c>
+      <c r="F157">
+        <v>0.47954289039857501</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2.5</v>
+      </c>
+      <c r="B158">
+        <v>0.16161158719430899</v>
+      </c>
+      <c r="C158">
+        <v>0.82601260734508697</v>
+      </c>
+      <c r="D158">
+        <v>-0.19173564102825699</v>
+      </c>
+      <c r="E158">
+        <v>-0.83743931159708096</v>
+      </c>
+      <c r="F158">
+        <v>0.47503462078137798</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2.6</v>
+      </c>
+      <c r="B159">
+        <v>0.153837293733917</v>
+      </c>
+      <c r="C159">
+        <v>0.83262331588397698</v>
+      </c>
+      <c r="D159">
+        <v>-0.18239006964717899</v>
+      </c>
+      <c r="E159">
+        <v>-0.83943705321420503</v>
+      </c>
+      <c r="F159">
+        <v>0.47082826281246498</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2.7</v>
+      </c>
+      <c r="B160">
+        <v>0.146721333874238</v>
+      </c>
+      <c r="C160">
+        <v>0.83849676229330505</v>
+      </c>
+      <c r="D160">
+        <v>-0.173828116581489</v>
+      </c>
+      <c r="E160">
+        <v>-0.84127039627776901</v>
+      </c>
+      <c r="F160">
+        <v>0.46690016257998401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2.8</v>
+      </c>
+      <c r="B161">
+        <v>0.140186568949899</v>
+      </c>
+      <c r="C161">
+        <v>0.84374245660318303</v>
+      </c>
+      <c r="D161">
+        <v>-0.165958933959795</v>
+      </c>
+      <c r="E161">
+        <v>-0.84295645571610101</v>
+      </c>
+      <c r="F161">
+        <v>0.46322783615337498</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2.9</v>
+      </c>
+      <c r="B162">
+        <v>0.134166965539293</v>
+      </c>
+      <c r="C162">
+        <v>0.84845016261977602</v>
+      </c>
+      <c r="D162">
+        <v>-0.15870458938196799</v>
+      </c>
+      <c r="E162">
+        <v>-0.84451046774165595</v>
+      </c>
+      <c r="F162">
+        <v>0.45979029727418902</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>3</v>
+      </c>
+      <c r="B163">
+        <v>0.12860576421699299</v>
+      </c>
+      <c r="C163">
+        <v>0.852694007056223</v>
+      </c>
+      <c r="D163">
+        <v>-0.15199797094688999</v>
+      </c>
+      <c r="E163">
+        <v>-0.84594593819863295</v>
+      </c>
+      <c r="F163">
+        <v>0.45656818291461199</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>3.1</v>
+      </c>
+      <c r="B164">
+        <v>0.123453975870701</v>
+      </c>
+      <c r="C164">
+        <v>0.856535633121984</v>
+      </c>
+      <c r="D164">
+        <v>-0.14578105799249899</v>
+      </c>
+      <c r="E164">
+        <v>-0.84727481293578499</v>
+      </c>
+      <c r="F164">
+        <v>0.45354376003220398</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>3.2</v>
+      </c>
+      <c r="B165">
+        <v>0.118669145699799</v>
+      </c>
+      <c r="C165">
+        <v>0.86002664130635098</v>
+      </c>
+      <c r="D165">
+        <v>-0.14000349350322899</v>
+      </c>
+      <c r="E165">
+        <v>-0.84850764978603099</v>
+      </c>
+      <c r="F165">
+        <v>0.45070086499529699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>3.3</v>
+      </c>
+      <c r="B166">
+        <v>0.114214335072407</v>
+      </c>
+      <c r="C166">
+        <v>0.86321049388029703</v>
+      </c>
+      <c r="D166">
+        <v>-0.13462140383656299</v>
+      </c>
+      <c r="E166">
+        <v>-0.84965378159572202</v>
+      </c>
+      <c r="F166">
+        <v>0.448024807374798</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>3.4</v>
+      </c>
+      <c r="B167">
+        <v>0.110057280454779</v>
+      </c>
+      <c r="C167">
+        <v>0.86612401255344396</v>
+      </c>
+      <c r="D167">
+        <v>-0.12959642065303101</v>
+      </c>
+      <c r="E167">
+        <v>-0.85072146540554305</v>
+      </c>
+      <c r="F167">
+        <v>0.44550225745779098</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>3.5</v>
+      </c>
+      <c r="B168">
+        <v>0.106169696326451</v>
+      </c>
+      <c r="C168">
+        <v>0.86879856498179198</v>
+      </c>
+      <c r="D168">
+        <v>-0.124894868067484</v>
+      </c>
+      <c r="E168">
+        <v>-0.85171801607295206</v>
+      </c>
+      <c r="F168">
+        <v>0.44312112911620599</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3.6</v>
+      </c>
+      <c r="B169">
+        <v>0.10252669536702801</v>
+      </c>
+      <c r="C169">
+        <v>0.87126101145385004</v>
+      </c>
+      <c r="D169">
+        <v>-0.12048708491888301</v>
+      </c>
+      <c r="E169">
+        <v>-0.85264992436416898</v>
+      </c>
+      <c r="F169">
+        <v>0.44087046482897801</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>3.7</v>
+      </c>
+      <c r="B170">
+        <v>9.91063043869439E-2</v>
+      </c>
+      <c r="C170">
+        <v>0.87353446534394297</v>
+      </c>
+      <c r="D170">
+        <v>-0.116346857741579</v>
+      </c>
+      <c r="E170">
+        <v>-0.85352296043620501</v>
+      </c>
+      <c r="F170">
+        <v>0.43874032663685397</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3.8</v>
+      </c>
+      <c r="B171">
+        <v>9.5889058655461004E-2</v>
+      </c>
+      <c r="C171">
+        <v>0.87563890790591203</v>
+      </c>
+      <c r="D171">
+        <v>-0.112450944657229</v>
+      </c>
+      <c r="E171">
+        <v>-0.85434226403457503</v>
+      </c>
+      <c r="F171">
+        <v>0.43672169493630802</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>3.9</v>
+      </c>
+      <c r="B172">
+        <v>9.2857660631846806E-2</v>
+      </c>
+      <c r="C172">
+        <v>0.87759168835610601</v>
+      </c>
+      <c r="D172">
+        <v>-0.10877867415740899</v>
+      </c>
+      <c r="E172">
+        <v>-0.85511242286253897</v>
+      </c>
+      <c r="F172">
+        <v>0.43480637587245402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>4</v>
+      </c>
+      <c r="B173">
+        <v>8.9996691787651906E-2</v>
+      </c>
+      <c r="C173">
+        <v>0.87940793302345399</v>
+      </c>
+      <c r="D173">
+        <v>-0.105311605769164</v>
+      </c>
+      <c r="E173">
+        <v>-0.85583754055820904</v>
+      </c>
+      <c r="F173">
+        <v>0.43298691740422701</v>
       </c>
     </row>
   </sheetData>
